--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/ARKANSAS_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/ARKANSAS_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D968"/>
+  <dimension ref="A1:D962"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C26">
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="28">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C30">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C43">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C46">
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="63">
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="D72">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="73">
@@ -1355,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="D74">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="75">
@@ -1413,14 +1413,14 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="80">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C82">
@@ -1756,7 +1756,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C105">
@@ -1776,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="D106">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="107">
@@ -1846,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="112">
@@ -1891,7 +1891,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C115">
@@ -1917,7 +1917,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1974,7 +1974,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C121">
@@ -2233,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="D140">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="141">
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="D142">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="143">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C145">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C148">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C156">
@@ -2467,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="D158">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="159">
@@ -2551,12 +2551,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C165">
@@ -2589,7 +2589,7 @@
         <v>5</v>
       </c>
       <c r="D167">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C169">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C173">
@@ -2693,7 +2693,7 @@
         <v>5</v>
       </c>
       <c r="D175">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="176">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C180">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C183">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C192">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C200">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C210">
@@ -3174,7 +3174,7 @@
         <v>5</v>
       </c>
       <c r="D212">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C215">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C223">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C225">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C232">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C236">
@@ -3543,7 +3543,7 @@
         <v>5</v>
       </c>
       <c r="D240">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="241">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C245">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C247">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C249">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C252">
@@ -3725,13 +3725,13 @@
         <v>5</v>
       </c>
       <c r="D254">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C255">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C261">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C263">
@@ -3873,13 +3873,13 @@
         <v>5</v>
       </c>
       <c r="D265">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C266">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C269">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,20 +3957,20 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C272">
         <v>5</v>
       </c>
       <c r="D272">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C280">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C289">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C291">
@@ -4263,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="D295">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="296">
@@ -4289,7 +4289,7 @@
         <v>5</v>
       </c>
       <c r="D297">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="298">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C300">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C302">
@@ -4373,14 +4373,14 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C304">
         <v>5</v>
       </c>
       <c r="D304">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C306">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C309">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C314">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C317">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C321">
@@ -4638,14 +4638,14 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C324">
         <v>5</v>
       </c>
       <c r="D324">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="325">
@@ -4658,7 +4658,7 @@
         <v>5</v>
       </c>
       <c r="D325">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="326">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C329">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C330">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C331">
@@ -4749,13 +4749,13 @@
         <v>5</v>
       </c>
       <c r="D332">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C334">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C336">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C340">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C344">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C346">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C351">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C364">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C369">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C371">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C374">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C378">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C382">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C383">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C387">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C391">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C393">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C400">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C402">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C404">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C421">
@@ -5942,7 +5942,7 @@
         <v>5</v>
       </c>
       <c r="D423">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="424">
@@ -5968,7 +5968,7 @@
         <v>5</v>
       </c>
       <c r="D425">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="426">
@@ -6163,7 +6163,7 @@
         <v>5</v>
       </c>
       <c r="D440">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="441">
@@ -6429,7 +6429,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C461">
@@ -6488,7 +6488,7 @@
         <v>5</v>
       </c>
       <c r="D465">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="466">
@@ -6655,7 +6655,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C478">
@@ -6753,7 +6753,7 @@
         <v>5</v>
       </c>
       <c r="D485">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="486">
@@ -6772,7 +6772,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C487">
@@ -6920,7 +6920,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C498">
@@ -7088,7 +7088,7 @@
         <v>5</v>
       </c>
       <c r="D510">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="511">
@@ -7120,7 +7120,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C513">
@@ -7172,14 +7172,14 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C517">
         <v>5</v>
       </c>
       <c r="D517">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="518">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C520">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C526">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C528">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C531">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C536">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C538">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C539">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C543">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C549">
@@ -7613,7 +7613,7 @@
         <v>5</v>
       </c>
       <c r="D550">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="551">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C566">
@@ -7860,7 +7860,7 @@
         <v>5</v>
       </c>
       <c r="D569">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="570">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C579">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C616">
@@ -8736,7 +8736,7 @@
         <v>5</v>
       </c>
       <c r="D636">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="637">
@@ -8768,7 +8768,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C639">
@@ -8807,7 +8807,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C642">
@@ -8846,7 +8846,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C645">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C662">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C667">
@@ -9145,7 +9145,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C668">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C671">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C674">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C676">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C680">
@@ -9410,14 +9410,14 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C688">
         <v>5</v>
       </c>
       <c r="D688">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="689">
@@ -9430,13 +9430,13 @@
         <v>5</v>
       </c>
       <c r="D689">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C690">
@@ -9475,7 +9475,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C693">
@@ -9488,7 +9488,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C694">
@@ -9527,7 +9527,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C697">
@@ -9553,7 +9553,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C699">
@@ -9693,7 +9693,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C709">
@@ -9758,7 +9758,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C714">
@@ -9849,14 +9849,14 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C721">
         <v>5</v>
       </c>
       <c r="D721">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="722">
@@ -9914,7 +9914,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C726">
@@ -9960,13 +9960,13 @@
         <v>5</v>
       </c>
       <c r="D729">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C730">
@@ -9992,7 +9992,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C732">
@@ -10070,7 +10070,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C738">
@@ -10096,7 +10096,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C740">
@@ -10109,7 +10109,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C741">
@@ -10122,7 +10122,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C742">
@@ -10135,7 +10135,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C743">
@@ -10148,7 +10148,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C744">
@@ -10418,7 +10418,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C764">
@@ -10573,7 +10573,7 @@
         <v>5</v>
       </c>
       <c r="D775">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="776">
@@ -10747,7 +10747,7 @@
         <v>5</v>
       </c>
       <c r="D788">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="789">
@@ -10916,7 +10916,7 @@
         <v>5</v>
       </c>
       <c r="D801">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="802">
@@ -11096,7 +11096,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C815">
@@ -11135,7 +11135,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C818">
@@ -11257,7 +11257,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C827">
@@ -11283,7 +11283,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C829">
@@ -11329,7 +11329,7 @@
         <v>5</v>
       </c>
       <c r="D832">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="833">
@@ -11348,7 +11348,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C834">
@@ -11400,7 +11400,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C838">
@@ -11413,7 +11413,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C839">
@@ -11530,20 +11530,20 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C848">
         <v>5</v>
       </c>
       <c r="D848">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C849">
@@ -11654,7 +11654,7 @@
         <v>5</v>
       </c>
       <c r="D857">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="858">
@@ -11673,7 +11673,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C859">
@@ -11686,7 +11686,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C860">
@@ -11764,7 +11764,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C866">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C869">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C871">
@@ -11842,7 +11842,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C872">
@@ -11875,7 +11875,7 @@
         <v>5</v>
       </c>
       <c r="D874">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="875">
@@ -11972,7 +11972,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C882">
@@ -12011,7 +12011,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C885">
@@ -12063,7 +12063,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C889">
@@ -12076,7 +12076,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C890">
@@ -12135,7 +12135,7 @@
         <v>5</v>
       </c>
       <c r="D894">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="895">
@@ -12297,7 +12297,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C907">
@@ -12395,7 +12395,7 @@
         <v>5</v>
       </c>
       <c r="D914">
-        <v>0.0009584052137243627</v>
+        <v>0.0009584052137243628</v>
       </c>
     </row>
     <row r="915">
@@ -12567,7 +12567,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C927">
@@ -12762,7 +12762,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C942">
@@ -12775,7 +12775,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C943">
@@ -12892,7 +12892,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C952">
@@ -12905,7 +12905,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C953">
@@ -12931,7 +12931,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C955">
@@ -13030,41 +13030,6 @@
       </c>
       <c r="D962">
         <v>1</v>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
